--- a/medicine/Sexualité et sexologie/Comédie_érotique/Comédie_érotique.xlsx
+++ b/medicine/Sexualité et sexologie/Comédie_érotique/Comédie_érotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Com%C3%A9die_%C3%A9rotique</t>
+          <t>Comédie_érotique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La comédie érotique désigne un genre cinématographique qui mélange des éléments de comédie humoristique et de film érotique. Le genre a été particulièrement prolifique dans les années 1970.
-Plusieurs pays ont été particulièrement prolifiques dans la réalisation de films de ce genre, dont l'Italie[1] et ses comédies érotiques à l'italienne, l'Espagne et ses destape, l'Allemagne[1] et ses Lederhosenfilmen, mais également le Brésil et ses pornochanchada. Au Royaume-Uni, ce courant est principalement associé à l'acteur Robin Askwith, qui incarnait le personnage de Timmy Lea dans la série de films Confessions.... Chacun de ces courants a ses propres particularités, puisqu'ils peuvent être, comme au Brésil ou en Italie, une manière de contourner la morale ou la censure politique, ou peut être à l'inverse, comme en Allemagne, l'expression de la liberté sexuelle propre à cette époque[1].
+Plusieurs pays ont été particulièrement prolifiques dans la réalisation de films de ce genre, dont l'Italie et ses comédies érotiques à l'italienne, l'Espagne et ses destape, l'Allemagne et ses Lederhosenfilmen, mais également le Brésil et ses pornochanchada. Au Royaume-Uni, ce courant est principalement associé à l'acteur Robin Askwith, qui incarnait le personnage de Timmy Lea dans la série de films Confessions.... Chacun de ces courants a ses propres particularités, puisqu'ils peuvent être, comme au Brésil ou en Italie, une manière de contourner la morale ou la censure politique, ou peut être à l'inverse, comme en Allemagne, l'expression de la liberté sexuelle propre à cette époque.
 </t>
         </is>
       </c>
